--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -51,7 +51,7 @@
     <t>ListView</t>
   </si>
   <si>
-    <t>Ready to Write</t>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,14 +572,14 @@
       </c>
       <c r="G1" s="7">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Title</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Read</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +568,7 @@
       </c>
       <c r="E1" s="4">
         <f>COUNTA($A:$A) -1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -604,7 +607,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
     </row>
@@ -614,7 +628,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,7 +646,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.25</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Title</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Read</t>
+  </si>
+  <si>
+    <t>Contains a partially automated test case.</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +621,9 @@
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Contains a partially automated test case.</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -153,7 +162,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -541,7 +562,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +592,7 @@
       </c>
       <c r="E1" s="4">
         <f>COUNTA($A:$A) -1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -590,16 +611,16 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
@@ -611,39 +632,63 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -652,7 +697,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.13333333333333333</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -670,35 +715,35 @@
   <sortState ref="A2:E8">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="D1 D4:D1048576">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="Outdated">
+  <conditionalFormatting sqref="D8:D1048576 D1:D3">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="Outdated">
       <formula>NOT(ISERROR(SEARCH("Outdated",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
-      <formula>NOT(ISERROR(SEARCH("Finished",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
-      <formula>NOT(ISERROR(SEARCH("Automated",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
-      <formula>NOT(ISERROR(SEARCH("Under Review",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH("Testing",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
-      <formula>NOT(ISERROR(SEARCH("Writing",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
-      <formula>NOT(ISERROR(SEARCH("Ready to Write",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
-      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="Suited to Manual">
-      <formula>NOT(ISERROR(SEARCH("Suited to Manual",D2)))</formula>
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="containsText" dxfId="8" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+      <formula>NOT(ISERROR(SEARCH("Automated",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+      <formula>NOT(ISERROR(SEARCH("Under Review",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH("Testing",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+      <formula>NOT(ISERROR(SEARCH("Writing",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+      <formula>NOT(ISERROR(SEARCH("Ready to Write",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="8" stopIfTrue="1" operator="containsText" text="Suited to Manual">
+      <formula>NOT(ISERROR(SEARCH("Suited to Manual",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Title</t>
   </si>
@@ -66,7 +66,10 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Writing</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill>
@@ -178,6 +202,40 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -244,6 +302,27 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <gradientFill>
           <stop position="0">
             <color rgb="FF00B0F0"/>
@@ -252,6 +331,186 @@
             <color rgb="FF00B050"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
       </fill>
     </dxf>
   </dxfs>
@@ -562,7 +821,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +865,7 @@
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,15 +878,15 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -640,8 +899,8 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
@@ -664,7 +923,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -672,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -688,7 +947,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -697,7 +956,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.15</v>
+        <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -715,35 +974,32 @@
   <sortState ref="A2:E8">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="D8:D1048576 D1:D3">
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="Outdated">
-      <formula>NOT(ISERROR(SEARCH("Outdated",D1)))</formula>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+      <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+      <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+      <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+      <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="8" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
-      <formula>NOT(ISERROR(SEARCH("Finished",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
-      <formula>NOT(ISERROR(SEARCH("Automated",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
-      <formula>NOT(ISERROR(SEARCH("Under Review",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH("Testing",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
-      <formula>NOT(ISERROR(SEARCH("Writing",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
-      <formula>NOT(ISERROR(SEARCH("Ready to Write",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
-      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" stopIfTrue="1" operator="containsText" text="Suited to Manual">
-      <formula>NOT(ISERROR(SEARCH("Suited to Manual",D4)))</formula>
+  <conditionalFormatting sqref="D2:D50">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="23" stopIfTrue="1">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
@@ -51,15 +51,9 @@
     <t>ListView</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Read</t>
   </si>
   <si>
-    <t>Contains a partially automated test case.</t>
-  </si>
-  <si>
     <t>Create</t>
   </si>
   <si>
@@ -70,6 +64,18 @@
   </si>
   <si>
     <t>Writing</t>
+  </si>
+  <si>
+    <t>Contains two partially automated test cases.</t>
+  </si>
+  <si>
+    <t>Contains four partially automated test cases.</t>
+  </si>
+  <si>
+    <t>Ready to Write</t>
+  </si>
+  <si>
+    <t>1 is Automateable, 2/3 are Automateable?</t>
   </si>
 </sst>
 </file>
@@ -165,287 +171,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -821,7 +547,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,40 +584,40 @@
       </c>
       <c r="G1" s="7">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -900,7 +626,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
@@ -910,13 +639,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -928,7 +660,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -937,17 +669,17 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -956,7 +688,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.52380952380952384</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -975,30 +707,30 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D50">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="23" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -655,7 +655,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.7142857142857143</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Title</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>Writing</t>
-  </si>
-  <si>
     <t>Contains two partially automated test cases.</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Ready to Write</t>
-  </si>
-  <si>
-    <t>1 is Automateable, 2/3 are Automateable?</t>
   </si>
 </sst>
 </file>
@@ -171,7 +165,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -547,7 +608,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,14 +645,14 @@
       </c>
       <c r="G1" s="7">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -605,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
@@ -623,13 +684,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
@@ -648,14 +706,14 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -672,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -688,7 +746,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.65217391304347827</v>
+        <v>0.68181818181818177</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -707,30 +765,30 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D50">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="23" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="23" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Ready to Write</t>
+  </si>
+  <si>
+    <t>JobHistoryErrors</t>
   </si>
 </sst>
 </file>
@@ -165,11 +168,78 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -608,7 +678,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +708,7 @@
       </c>
       <c r="E1" s="4">
         <f>COUNTA($A:$A) -1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -652,7 +722,7 @@
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +743,7 @@
       </c>
       <c r="G2" s="7">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,59 +764,71 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.68181818181818177</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -764,32 +846,60 @@
   <sortState ref="A2:E8">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D3 D5:D1048576">
+    <cfRule type="containsText" dxfId="23" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
+      <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
+      <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
+      <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
+      <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3 D5:D50">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="31" stopIfTrue="1">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
-      <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Finished",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
-      <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Automated",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
-      <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Under Review",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Testing",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
-      <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Writing",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
-      <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ready to Write",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
-      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D50">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="23" stopIfTrue="1">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(D4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -168,78 +168,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -678,7 +611,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -804,7 +737,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,7 +761,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -847,58 +780,58 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D1:D3 D5:D1048576">
-    <cfRule type="containsText" dxfId="23" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 D5:D50">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="31" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="31" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -611,7 +611,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.66666666666666663</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>JobHistoryErrors</t>
+  </si>
+  <si>
+    <t>JobStatistics</t>
+  </si>
+  <si>
+    <t>JobStatus</t>
+  </si>
+  <si>
+    <t>Suited to Manual</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,141 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -611,7 +754,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,21 +784,21 @@
       </c>
       <c r="E1" s="4">
         <f>COUNTA($A:$A) -1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="7">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,24 +856,21 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -742,26 +882,57 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.64</v>
+        <v>0.43243243243243246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,60 +950,88 @@
   <sortState ref="A2:E8">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D3 D5:D1048576">
-    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
+  <conditionalFormatting sqref="D1:D3 D7:D1048576">
+    <cfRule type="containsText" dxfId="23" priority="17" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="22" priority="18" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="21" priority="19" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="20" priority="20" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="19" priority="21" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="18" priority="22" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="17" priority="23" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3 D5:D50">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="D2:D3 D7:D50">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="39" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(D4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+      <formula>NOT(ISERROR(SEARCH("Automated",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+      <formula>NOT(ISERROR(SEARCH("Under Review",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH("Testing",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+      <formula>NOT(ISERROR(SEARCH("Writing",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+      <formula>NOT(ISERROR(SEARCH("Ready to Write",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(D4))&gt;0</formula>
+      <formula>LEN(TRIM(D5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -177,74 +177,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -754,7 +687,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +789,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,7 +831,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.43243243243243246</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -909,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -177,7 +177,141 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -687,7 +821,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +957,7 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -884,87 +1018,115 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D1:D3 D7:D1048576">
-    <cfRule type="containsText" dxfId="23" priority="17" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="39" priority="25" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="38" priority="26" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="37" priority="27" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="36" priority="28" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="35" priority="29" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="34" priority="30" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="23" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="33" priority="31" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 D7:D50">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="39" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="47" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="31" priority="17" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="30" priority="18" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="29" priority="19" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="28" priority="20" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="27" priority="21" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="26" priority="22" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="25" priority="23" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(D4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="23" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="22" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="21" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="20" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="19" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="18" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="17" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+      <formula>NOT(ISERROR(SEARCH("Automated",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+      <formula>NOT(ISERROR(SEARCH("Under Review",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH("Testing",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+      <formula>NOT(ISERROR(SEARCH("Writing",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+      <formula>NOT(ISERROR(SEARCH("Ready to Write",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+      <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(D6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -177,78 +177,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -821,7 +754,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +856,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -965,7 +898,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.4</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -993,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
@@ -1018,114 +951,114 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D1:D3 D7:D1048576">
-    <cfRule type="containsText" dxfId="39" priority="25" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="31" priority="25" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="26" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="30" priority="26" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="27" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="29" priority="27" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="28" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="28" priority="28" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="29" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="27" priority="29" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="30" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="26" priority="30" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="31" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="25" priority="31" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 D7:D50">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="47" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="47" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="31" priority="17" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="23" priority="17" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="18" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="22" priority="18" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="19" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="21" priority="19" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="20" priority="20" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="21" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="19" priority="21" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="22" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="18" priority="22" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="17" priority="23" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(D4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="23" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -754,7 +754,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.3902439024390244</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.38095238095238093</v>
+        <v>0.37209302325581395</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">

--- a/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/JobHistory/_Test_Suite_Statistics.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\IntegrationPoints\QA\Tests\JobHistory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20580" windowHeight="11640"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -82,6 +87,9 @@
   </si>
   <si>
     <t>Suited to Manual</t>
+  </si>
+  <si>
+    <t>Outdated</t>
   </si>
 </sst>
 </file>
@@ -460,6 +468,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -507,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,7 +765,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +802,7 @@
       </c>
       <c r="G1" s="7">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -819,7 +830,7 @@
       </c>
       <c r="G2" s="7">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -912,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -929,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
